--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem3/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem3/17/word_level_error_type_summary_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem3/17/word_level_error_type_summary_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem3/17/word_level_error_type_summary_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
